--- a/蓝鲸各产品核心功能caselist/作业平台核心功能测试用例.xlsx
+++ b/蓝鲸各产品核心功能caselist/作业平台核心功能测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="10365"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="139">
   <si>
     <t>核心测试点</t>
   </si>
@@ -476,28 +476,136 @@
     <t>脚本作业</t>
   </si>
   <si>
+    <t>1.进入作业平台-作业执行-新建作业
+2.自定义作业名称
+3.输入步骤名称
+4.输入脚本名称
+5.输入脚本内容
+6.选择服务器
+7.保存并执行</t>
+  </si>
+  <si>
+    <t>执行成功，并输入日志</t>
+  </si>
+  <si>
     <t>文件分发作业</t>
   </si>
   <si>
+    <t>准备本地文件和服务器文件</t>
+  </si>
+  <si>
+    <t>1.进入作业平台-作业执行-新建作业-添加分发文件步骤
+2.自定义作业名称
+3.输入步骤名称
+4.输入任务名称
+5.设置文件路径并上传文件（本地/服务器）
+6.选择服务器
+7.保存并执行</t>
+  </si>
+  <si>
+    <t>分发成功并输出日志</t>
+  </si>
+  <si>
     <t>SQL执行作业</t>
   </si>
   <si>
+    <t>已添加好DB账户</t>
+  </si>
+  <si>
+    <t>1.进入作业平台-作业执行-新建作业-添加SQL脚本步骤
+2.自定义作业名称
+3.输入步骤名称
+4.输入脚本名称
+5.选择账户并输入脚本内容
+6.选择服务器
+7.保存并执行</t>
+  </si>
+  <si>
+    <t>执行成功并输出日志</t>
+  </si>
+  <si>
     <t>多种组合作业</t>
   </si>
   <si>
+    <t>1.进入作业平台-作业执行-新建作业
+2.自定义作业名称
+3.添加脚本步骤，并设置脚本信息
+4.添加文件步骤，并设置文件信息
+5.添加SQL脚本步骤，并设置信息
+6.选择服务器
+7.保存并执行</t>
+  </si>
+  <si>
     <t>作业编辑</t>
   </si>
   <si>
+    <t>已有作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入作业执行-常用作业
+2.点击编辑，进入编辑模式
+3.修改作业
+4.保存
+</t>
+  </si>
+  <si>
+    <t>执行成功，输出结果为编辑之后的结果</t>
+  </si>
+  <si>
     <t>作业执行</t>
   </si>
   <si>
+    <t>已有编辑好的作业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入作业执行-常用作业
+2.选择服务器
+3.点击立即执行
+4.确认执行
+</t>
+  </si>
+  <si>
     <t>作业结果</t>
   </si>
   <si>
+    <t>执行完作业</t>
+  </si>
+  <si>
+    <t>1.进入执行历史点击查看详情
+2.进入作业步骤点击指定步骤的执行详情
+3.查看执行结果</t>
+  </si>
+  <si>
+    <t>执行成功，IP过滤，翻页，日志输出，日志导出，日志搜索功能正常</t>
+  </si>
+  <si>
     <t>单个机器执行</t>
   </si>
   <si>
+    <t>一台linux/一台win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入作业执行-常用作业
+2.选择单台服务器
+3.点击立即执行
+4.确认执行
+</t>
+  </si>
+  <si>
     <t>批量作业执行</t>
+  </si>
+  <si>
+    <t>3台以上机器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入作业执行-常用作业
+2.选择多台服务器
+3.点击立即执行
+4.确认执行
+</t>
+  </si>
+  <si>
+    <t>多台执行成功</t>
   </si>
   <si>
     <t>全部IP</t>
@@ -536,15 +644,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,6 +667,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,22 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,9 +733,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,15 +764,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -671,13 +786,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -694,31 +802,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,145 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +987,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -892,30 +1009,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -936,26 +1029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -971,6 +1044,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -987,145 +1095,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,9 +1598,9 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2035,84 +2143,159 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="32" customHeight="1" spans="1:2">
+    <row r="31" ht="63" customHeight="1" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="D31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" ht="73" customHeight="1" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" ht="54" customHeight="1" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" ht="39" customHeight="1" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" ht="35" customHeight="1" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" ht="57" customHeight="1" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" ht="68" customHeight="1" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="72" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" ht="43" customHeight="1" spans="1:2">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2120,7 +2303,7 @@
         <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2128,7 +2311,7 @@
         <v>104</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:1">
